--- a/so_encoded.xlsx
+++ b/so_encoded.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Desktop\automation_so_py\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C831FBD8-E4B0-4CAB-A584-AA71851D1F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="8100" windowWidth="13845" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,365 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="114">
+  <si>
+    <t>PORT</t>
+  </si>
+  <si>
+    <t>MICT SERVICE NAME</t>
+  </si>
+  <si>
+    <t>SERVICE NAME</t>
+  </si>
+  <si>
+    <t>SERVICE DESC</t>
+  </si>
+  <si>
+    <t>ROUTE</t>
+  </si>
+  <si>
+    <t>LEAD SL</t>
+  </si>
+  <si>
+    <t>SAILING FREQ</t>
+  </si>
+  <si>
+    <t>PARTICIPANTS</t>
+  </si>
+  <si>
+    <t>VESSEL OPERATOR</t>
+  </si>
+  <si>
+    <t># OF VESSELS</t>
+  </si>
+  <si>
+    <t># OF VESSELS PER ROW COUNT</t>
+  </si>
+  <si>
+    <t>WEEKLY CAPACITY</t>
+  </si>
+  <si>
+    <t>SHIPS USED</t>
+  </si>
+  <si>
+    <t>PORT ROTATION</t>
+  </si>
+  <si>
+    <t>ALT SRVC CD</t>
+  </si>
+  <si>
+    <t>VESSEL SIZE</t>
+  </si>
+  <si>
+    <t>VESSEL NAME</t>
+  </si>
+  <si>
+    <t>CMA CGM CAIMEP</t>
+  </si>
+  <si>
+    <t>TONSBERG</t>
+  </si>
+  <si>
+    <t>API BHUM</t>
+  </si>
+  <si>
+    <t>CHICAGO</t>
+  </si>
+  <si>
+    <t>Lianyungang, Qingdao, Singapore, Jakarta (Tanjung Priok), Tanjung Perak (Surabaya), Manila, Lianyungang</t>
+  </si>
+  <si>
+    <t>4 ships (from 4,256 - 6,078 teu)</t>
+  </si>
+  <si>
+    <t>APL</t>
+  </si>
+  <si>
+    <t>MICT</t>
+  </si>
+  <si>
+    <t>KCS</t>
+  </si>
+  <si>
+    <t>CNC - China-South East Asia service (KCS)</t>
+  </si>
+  <si>
+    <t>Intra Asia services - NE Asia-SE Asia</t>
+  </si>
+  <si>
+    <t>CNC</t>
+  </si>
+  <si>
+    <t>Vessel providers: CNC / Slotters: Asean Seas Line Co (ASL) / SITC</t>
+  </si>
+  <si>
+    <t>MICT + ATI</t>
+  </si>
+  <si>
+    <t>CN2</t>
+  </si>
+  <si>
+    <t>CNP 2</t>
+  </si>
+  <si>
+    <t>COSCO - China-Philippines Express service (CNP 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COSCO </t>
+  </si>
+  <si>
+    <t>Vessel providers: COSCO SHIPPING Lines / Slotters: China United Lines</t>
+  </si>
+  <si>
+    <t>COSCO SHIPPING Lines</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 ships </t>
+  </si>
+  <si>
+    <t>Qingdao, Ningbo (incl Zhoushan), Quanzhou, Manila, Subic Bay, Qingdao</t>
+  </si>
+  <si>
+    <t>JPX</t>
+  </si>
+  <si>
+    <t>JSX / JPX</t>
+  </si>
+  <si>
+    <t>CNC - Japan-Straits Express (JSX / JPX)</t>
+  </si>
+  <si>
+    <t>Vessel providers: CNC / Slotters: KMTC / CMA CGM / New Golden Sea Shipping Pte Ltd (GSS) / COSCO SHIPPING Lines</t>
+  </si>
+  <si>
+    <t>4 ships (from 3,388 - 3,635 teu)</t>
+  </si>
+  <si>
+    <t>Tokyo, Yokohama (Honmoku), Omaezaki, Yokkaichi, Nagoya, Kobe, Singapore, Port Kelang, Manila, Tokyo</t>
+  </si>
+  <si>
+    <t>GH TRAMONTANE</t>
+  </si>
+  <si>
+    <t>NAVIOS VERANO</t>
+  </si>
+  <si>
+    <t>BOMAR RENAISSANCE</t>
+  </si>
+  <si>
+    <t>BMX</t>
+  </si>
+  <si>
+    <t>CNC - China-Philippines service (Bohai-Manila Express - BMX)</t>
+  </si>
+  <si>
+    <t>Vessel providers: CNC / Slotters: TS Lines</t>
+  </si>
+  <si>
+    <t>5 ships (from 4,252 - 4,636 teu)</t>
+  </si>
+  <si>
+    <t>Dalian, Tianjin, Qingdao, Shantou, Hong Kong, Shekou (Shenzhen), Nansha, Manila, Davao, Pyeongtaek, Dalian</t>
+  </si>
+  <si>
+    <t>ZHONG GU NAN NING</t>
+  </si>
+  <si>
+    <t>CMA CGM PUGET</t>
+  </si>
+  <si>
+    <t>JACK LONDON</t>
+  </si>
+  <si>
+    <t>HENG HUI 5</t>
+  </si>
+  <si>
+    <t>JONATHAN SWIFT</t>
+  </si>
+  <si>
+    <t>XIAMEN</t>
+  </si>
+  <si>
+    <t>XIN TIAN JIN</t>
+  </si>
+  <si>
+    <t>CMA CGM GEORGE SAND</t>
+  </si>
+  <si>
+    <t>ARAYA BHUM</t>
+  </si>
+  <si>
+    <t>TS SYDNEY</t>
+  </si>
+  <si>
+    <t>KMTC MUMBAI</t>
+  </si>
+  <si>
+    <t>CMA CGM</t>
+  </si>
+  <si>
+    <t>RCL (Regional Container Line)</t>
+  </si>
+  <si>
+    <t>TS Lines</t>
+  </si>
+  <si>
+    <t>KMTC</t>
+  </si>
+  <si>
+    <t>IEX</t>
+  </si>
+  <si>
+    <t>COSCO / TS Lines / RCL / CMA CGM / UniFeeder/ KMTC - India East Coast Express</t>
+  </si>
+  <si>
+    <t>Far East / Indian subcontinent - dedicated services</t>
+  </si>
+  <si>
+    <t>COSCO</t>
+  </si>
+  <si>
+    <t>Vessel providers: UniFeeder / COSCO SHIPPING Lines / TS Lines / RCL (Regional Container Line) / CMA CGM / KMTC / Slotters: China United Lines / Evergreen Line / OOCL</t>
+  </si>
+  <si>
+    <t>6 ships (from 4,957 - 6,350 teu)</t>
+  </si>
+  <si>
+    <t>Qingdao, Shanghai, Ningbo (incl Zhoushan), Manila, Qingdao</t>
+  </si>
+  <si>
+    <t>LECANGS DOLPHIN</t>
+  </si>
+  <si>
+    <t>SONGA PANTHER</t>
+  </si>
+  <si>
+    <t>ZHONG GU DONG HAI</t>
+  </si>
+  <si>
+    <t>CNC PLUTO</t>
+  </si>
+  <si>
+    <t>CNC MARS</t>
+  </si>
+  <si>
+    <t>Busan, Qingdao, Shanghai, Chiwan (Shenzhen), Singapore, Port Kelang, Chennai, Visakhapatnam, Port Kelang, Singapore, Manila, Busan</t>
+  </si>
+  <si>
+    <t>5 ships (from 1,700 - 1,952 teu)</t>
+  </si>
+  <si>
+    <t>CSE</t>
+  </si>
+  <si>
+    <t>CNC - China-South Korea-Thailand-Philippines-Vietnam service (CSE)</t>
+  </si>
+  <si>
+    <t>Vessel providers: CNC / Slotters: HMM Co Ltd / RCL (Regional Container Line) / Asean Seas Line Co (ASL) / CMA CGM</t>
+  </si>
+  <si>
+    <t>Dalian, Incheon, Ningbo (incl Zhoushan), Shanghai, Laem Chabang, Bangkok, Laem Chabang, Manila, Qui Nhon, Chu Lai , Busan New Port, Dalian</t>
+  </si>
+  <si>
+    <t>KTP</t>
+  </si>
+  <si>
+    <t>Evergreen - China-Taiwan-Philippines service (KTP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evergreen </t>
+  </si>
+  <si>
+    <t>Vessel providers: Evergreen Line / Slotters: X-Press Feeders Group</t>
+  </si>
+  <si>
+    <t>Evergreen Line</t>
+  </si>
+  <si>
+    <t>4 ships (from 2,870 - 2,910 teu)</t>
+  </si>
+  <si>
+    <t>Dalian, Tianjin, Qingdao, Hong Kong, Shekou (Shenzhen), Kaohsiung, Manila, Laem Chabang, Hong Kong, Kaohsiung, Dalian</t>
+  </si>
+  <si>
+    <t>EVER BEFIT</t>
+  </si>
+  <si>
+    <t>EVER BUILD</t>
+  </si>
+  <si>
+    <t>EVER BEADY</t>
+  </si>
+  <si>
+    <t>EVER BIRTH</t>
+  </si>
+  <si>
+    <t>ASL TAIPEI</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>NPX</t>
+  </si>
+  <si>
+    <t>Asean Seas Line / Gold Star Line – China-Philippines service (NPX)</t>
+  </si>
+  <si>
+    <t>Asean Seas Line</t>
+  </si>
+  <si>
+    <t>Vessel providers: Gold Star Line / Asean Seas Line Co (ASL) / Slotters: Zim</t>
+  </si>
+  <si>
+    <t>Asean Seas Line Co (ASL)</t>
+  </si>
+  <si>
+    <t>2 ships (from 1,732 - 1,930 teu)</t>
+  </si>
+  <si>
+    <t>Gold Star Line</t>
+  </si>
+  <si>
+    <t>ATI-SH</t>
+  </si>
+  <si>
+    <t>NPX2</t>
+  </si>
+  <si>
+    <t>Asean Seas Line – China-Philippines service (NPX2)</t>
+  </si>
+  <si>
+    <t>Vessel providers: Asean Seas Line Co (ASL)</t>
+  </si>
+  <si>
+    <t>2 ships (from 585 - 848 teu)</t>
+  </si>
+  <si>
+    <t>Qingdao, Shanghai, Manila, Qingdao, Shanghai</t>
+  </si>
+  <si>
+    <t>PACIFIC GRACE</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,14 +408,89 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="PivotTable Style 1" table="0" count="1" xr9:uid="{17499206-C468-4B3C-9724-CDC134EA95B2}">
+      <tableStyleElement type="wholeTable" dxfId="2"/>
+    </tableStyle>
+    <tableStyle name="PivotTable Style 2" table="0" count="2" xr9:uid="{486F1434-1356-44F2-89A0-98241C3F7202}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +764,1633 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>5219</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2">
+        <v>4256</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>5219</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3">
+        <v>5551</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>5219</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4">
+        <v>4992</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>5219</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5">
+        <v>6078</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3">
+        <v>7</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="4">
+        <v>7</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4">
+        <v>4</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2621</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="9">
+        <v>3768</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4">
+        <v>7</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="4">
+        <v>4</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>2621</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="9">
+        <v>3635</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="5">
+        <v>7</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="5">
+        <v>4</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>2621</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="9">
+        <v>3388</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="4">
+        <v>7</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="4">
+        <v>4</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>2621</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="9">
+        <v>3461</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="5">
+        <v>7</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>4353</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5">
+        <v>4256</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="5">
+        <v>7</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="5">
+        <v>5</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>4353</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5">
+        <v>4253</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="5">
+        <v>7</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="5">
+        <v>5</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>4353</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5">
+        <v>4636</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="5">
+        <v>7</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="5">
+        <v>5</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>4353</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5">
+        <v>4367</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="5">
+        <v>7</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="5">
+        <v>5</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>4353</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5">
+        <v>4256</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="6">
+        <v>7</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6">
+        <v>4047</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P16" s="5">
+        <v>5668</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="6">
+        <v>7</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="6">
+        <v>4047</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P17" s="5">
+        <v>6350</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="6">
+        <v>7</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <v>4047</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P18" s="5">
+        <v>5888</v>
+      </c>
+      <c r="Q18" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="6">
+        <v>7</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6">
+        <v>4047</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P19" s="5">
+        <v>4957</v>
+      </c>
+      <c r="Q19" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="6">
+        <v>7</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" s="6">
+        <v>4047</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P20" s="5">
+        <v>5466</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="8">
+        <v>7</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="8">
+        <v>5</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1825</v>
+      </c>
+      <c r="M21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P21" s="6">
+        <v>1781</v>
+      </c>
+      <c r="Q21" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G22" s="8">
+        <v>7</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="8">
+        <v>5</v>
+      </c>
+      <c r="K22" s="8">
+        <v>1</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1825</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" s="6">
+        <v>1781</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23" s="8">
+        <v>7</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="8">
+        <v>5</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1825</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" s="6">
+        <v>1912</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="8">
+        <v>7</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="8">
+        <v>5</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1825</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="6">
+        <v>1700</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="8">
+        <v>7</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="8">
+        <v>5</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1825</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P25" s="6">
+        <v>1952</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="9">
+        <v>7</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" s="9">
+        <v>4</v>
+      </c>
+      <c r="K26" s="9">
+        <v>1</v>
+      </c>
+      <c r="L26" s="9">
+        <v>2888</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9">
+        <v>2910</v>
+      </c>
+      <c r="Q26" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="9">
+        <v>7</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="9">
+        <v>4</v>
+      </c>
+      <c r="K27" s="9">
+        <v>1</v>
+      </c>
+      <c r="L27" s="9">
+        <v>2888</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9">
+        <v>2870</v>
+      </c>
+      <c r="Q27" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="9">
+        <v>7</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" s="9">
+        <v>4</v>
+      </c>
+      <c r="K28" s="9">
+        <v>1</v>
+      </c>
+      <c r="L28" s="9">
+        <v>2888</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9">
+        <v>2886</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="9">
+        <v>7</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="9">
+        <v>4</v>
+      </c>
+      <c r="K29" s="9">
+        <v>1</v>
+      </c>
+      <c r="L29" s="9">
+        <v>2888</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="N29" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9">
+        <v>2886</v>
+      </c>
+      <c r="Q29" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="10">
+        <v>7</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J30" s="10">
+        <v>2</v>
+      </c>
+      <c r="K30" s="10">
+        <v>1</v>
+      </c>
+      <c r="L30" s="10">
+        <v>1766</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P30" s="9">
+        <v>1800</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="10">
+        <v>7</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J31" s="10">
+        <v>2</v>
+      </c>
+      <c r="K31" s="10">
+        <v>1</v>
+      </c>
+      <c r="L31" s="10">
+        <v>1766</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P31" s="9">
+        <v>1732</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G32" s="11">
+        <v>7</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J32" s="11">
+        <v>2</v>
+      </c>
+      <c r="K32" s="11">
+        <v>1</v>
+      </c>
+      <c r="L32" s="11">
+        <v>713</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="P32" s="11">
+        <v>848</v>
+      </c>
+      <c r="Q32" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/so_encoded.xlsx
+++ b/so_encoded.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bernard\Desktop\automation_so_py\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C831FBD8-E4B0-4CAB-A584-AA71851D1F1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35815BB9-7774-414F-8912-2F009CB05C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8100" windowWidth="13845" windowHeight="8100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -408,18 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -767,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -827,43 +816,43 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="2">
-        <v>7</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2">
         <v>4</v>
       </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>5219</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
       <c r="N2" t="s">
@@ -877,43 +866,43 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="2">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3">
         <v>4</v>
       </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>5219</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" t="s">
         <v>22</v>
       </c>
       <c r="N3" t="s">
@@ -927,43 +916,43 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>4</v>
       </c>
-      <c r="K4" s="2">
-        <v>1</v>
-      </c>
-      <c r="L4" s="2">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>5219</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" t="s">
         <v>22</v>
       </c>
       <c r="N4" t="s">
@@ -977,43 +966,43 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="2">
-        <v>7</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>5219</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" t="s">
         <v>22</v>
       </c>
       <c r="N5" t="s">
@@ -1027,540 +1016,531 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="3">
-        <v>7</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>3</v>
       </c>
-      <c r="K6" s="3">
-        <v>1</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>37</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" t="s">
         <v>38</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3" t="s">
+      <c r="P6" t="s">
         <v>37</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="4">
-        <v>7</v>
-      </c>
-      <c r="H7" s="4" t="s">
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7">
         <v>4</v>
       </c>
-      <c r="K7" s="4">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>2621</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" t="s">
         <v>44</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="9">
+      <c r="P7">
         <v>3768</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="4">
-        <v>7</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8">
         <v>4</v>
       </c>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>2621</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" t="s">
         <v>44</v>
       </c>
-      <c r="N8" s="4" t="s">
+      <c r="N8" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="9">
+      <c r="P8">
         <v>3635</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="5" t="s">
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="5">
-        <v>7</v>
-      </c>
-      <c r="H9" s="5" t="s">
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9">
         <v>4</v>
       </c>
-      <c r="K9" s="5">
-        <v>1</v>
-      </c>
-      <c r="L9" s="5">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>2621</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" t="s">
         <v>44</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9">
         <v>3388</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="4">
-        <v>7</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10">
         <v>4</v>
       </c>
-      <c r="K10" s="4">
-        <v>1</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>2621</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="4" t="s">
+      <c r="N10" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="9">
+      <c r="P10">
         <v>3461</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" t="s">
         <v>50</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="5">
-        <v>7</v>
-      </c>
-      <c r="H11" s="5" t="s">
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11">
         <v>5</v>
       </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>4353</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" t="s">
         <v>52</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" t="s">
         <v>53</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5">
+      <c r="P11">
         <v>4256</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="5">
-        <v>7</v>
-      </c>
-      <c r="H12" s="5" t="s">
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12">
         <v>5</v>
       </c>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>4353</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" t="s">
         <v>52</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" t="s">
         <v>53</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5">
+      <c r="P12">
         <v>4253</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="5">
-        <v>7</v>
-      </c>
-      <c r="H13" s="5" t="s">
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13">
         <v>5</v>
       </c>
-      <c r="K13" s="5">
-        <v>1</v>
-      </c>
-      <c r="L13" s="5">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>4353</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" t="s">
         <v>52</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" t="s">
         <v>53</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5">
+      <c r="P13">
         <v>4636</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="5">
-        <v>7</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14">
         <v>5</v>
       </c>
-      <c r="K14" s="5">
-        <v>1</v>
-      </c>
-      <c r="L14" s="5">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>4353</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" t="s">
         <v>52</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" t="s">
         <v>53</v>
       </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5">
+      <c r="P14">
         <v>4367</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="5" t="s">
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="5">
-        <v>7</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15">
         <v>5</v>
       </c>
-      <c r="K15" s="5">
-        <v>1</v>
-      </c>
-      <c r="L15" s="5">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>4353</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" t="s">
         <v>52</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" t="s">
         <v>53</v>
       </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5">
+      <c r="P15">
         <v>4256</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="6">
-        <v>7</v>
-      </c>
-      <c r="H16" s="6" t="s">
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" t="s">
         <v>36</v>
       </c>
       <c r="J16">
@@ -1569,48 +1549,48 @@
       <c r="K16">
         <v>1</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16">
         <v>4047</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="M16" t="s">
         <v>74</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" t="s">
         <v>81</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16">
         <v>5668</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="6">
-        <v>7</v>
-      </c>
-      <c r="H17" s="6" t="s">
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" t="s">
         <v>65</v>
       </c>
       <c r="J17">
@@ -1619,48 +1599,48 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17">
         <v>4047</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" t="s">
         <v>74</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" t="s">
         <v>81</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17">
         <v>6350</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="6">
-        <v>7</v>
-      </c>
-      <c r="H18" s="6" t="s">
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" t="s">
         <v>66</v>
       </c>
       <c r="J18">
@@ -1669,48 +1649,48 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18">
         <v>4047</v>
       </c>
-      <c r="M18" s="7" t="s">
+      <c r="M18" t="s">
         <v>74</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" t="s">
         <v>81</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18">
         <v>5888</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="6">
-        <v>7</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="G19">
+        <v>7</v>
+      </c>
+      <c r="H19" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" t="s">
         <v>67</v>
       </c>
       <c r="J19">
@@ -1719,48 +1699,48 @@
       <c r="K19">
         <v>1</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19">
         <v>4047</v>
       </c>
-      <c r="M19" s="7" t="s">
+      <c r="M19" t="s">
         <v>74</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" t="s">
         <v>81</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19">
         <v>4957</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q19" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" t="s">
         <v>72</v>
       </c>
-      <c r="G20" s="6">
-        <v>7</v>
-      </c>
-      <c r="H20" s="6" t="s">
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" t="s">
         <v>68</v>
       </c>
       <c r="J20">
@@ -1769,623 +1749,619 @@
       <c r="K20">
         <v>1</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20">
         <v>4047</v>
       </c>
-      <c r="M20" s="7" t="s">
+      <c r="M20" t="s">
         <v>74</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" t="s">
         <v>81</v>
       </c>
-      <c r="P20" s="5">
+      <c r="P20">
         <v>5466</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="8" t="s">
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="8">
-        <v>7</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" t="s">
         <v>23</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21">
         <v>5</v>
       </c>
-      <c r="K21" s="8">
-        <v>1</v>
-      </c>
-      <c r="L21" s="8">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
         <v>1825</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" t="s">
         <v>82</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N21" t="s">
         <v>86</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21">
         <v>1781</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" t="s">
         <v>84</v>
       </c>
-      <c r="E22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="8">
-        <v>7</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22" t="s">
         <v>85</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" t="s">
         <v>23</v>
       </c>
-      <c r="J22" s="8">
+      <c r="J22">
         <v>5</v>
       </c>
-      <c r="K22" s="8">
-        <v>1</v>
-      </c>
-      <c r="L22" s="8">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
         <v>1825</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" t="s">
         <v>82</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="N22" t="s">
         <v>86</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22">
         <v>1781</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="Q22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
         <v>28</v>
       </c>
-      <c r="G23" s="8">
-        <v>7</v>
-      </c>
-      <c r="H23" s="8" t="s">
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
         <v>85</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23">
         <v>5</v>
       </c>
-      <c r="K23" s="8">
-        <v>1</v>
-      </c>
-      <c r="L23" s="8">
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
         <v>1825</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" t="s">
         <v>82</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N23" t="s">
         <v>86</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23">
         <v>1912</v>
       </c>
-      <c r="Q23" s="6" t="s">
+      <c r="Q23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
         <v>28</v>
       </c>
-      <c r="G24" s="8">
-        <v>7</v>
-      </c>
-      <c r="H24" s="8" t="s">
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" t="s">
         <v>23</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24">
         <v>5</v>
       </c>
-      <c r="K24" s="8">
-        <v>1</v>
-      </c>
-      <c r="L24" s="8">
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>1825</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" t="s">
         <v>82</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N24" t="s">
         <v>86</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24">
         <v>1700</v>
       </c>
-      <c r="Q24" s="6" t="s">
+      <c r="Q24" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="8">
-        <v>7</v>
-      </c>
-      <c r="H25" s="8" t="s">
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25" t="s">
         <v>85</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" t="s">
         <v>23</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25">
         <v>5</v>
       </c>
-      <c r="K25" s="8">
-        <v>1</v>
-      </c>
-      <c r="L25" s="8">
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
         <v>1825</v>
       </c>
-      <c r="M25" s="8" t="s">
+      <c r="M25" t="s">
         <v>82</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="N25" t="s">
         <v>86</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25">
         <v>1952</v>
       </c>
-      <c r="Q25" s="6" t="s">
+      <c r="Q25" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="9" t="s">
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="9">
-        <v>7</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26" t="s">
         <v>90</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" t="s">
         <v>91</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26">
         <v>4</v>
       </c>
-      <c r="K26" s="9">
-        <v>1</v>
-      </c>
-      <c r="L26" s="9">
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
         <v>2888</v>
       </c>
-      <c r="M26" s="9" t="s">
+      <c r="M26" t="s">
         <v>92</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N26" t="s">
         <v>93</v>
       </c>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9">
+      <c r="P26">
         <v>2910</v>
       </c>
-      <c r="Q26" s="9" t="s">
+      <c r="Q26" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="9" t="s">
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="9">
-        <v>7</v>
-      </c>
-      <c r="H27" s="9" t="s">
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
         <v>90</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" t="s">
         <v>91</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27">
         <v>4</v>
       </c>
-      <c r="K27" s="9">
-        <v>1</v>
-      </c>
-      <c r="L27" s="9">
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
         <v>2888</v>
       </c>
-      <c r="M27" s="9" t="s">
+      <c r="M27" t="s">
         <v>92</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" t="s">
         <v>93</v>
       </c>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9">
+      <c r="P27">
         <v>2870</v>
       </c>
-      <c r="Q27" s="9" t="s">
+      <c r="Q27" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="9" t="s">
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
         <v>89</v>
       </c>
-      <c r="G28" s="9">
-        <v>7</v>
-      </c>
-      <c r="H28" s="9" t="s">
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28" t="s">
         <v>90</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" t="s">
         <v>91</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28">
         <v>4</v>
       </c>
-      <c r="K28" s="9">
-        <v>1</v>
-      </c>
-      <c r="L28" s="9">
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
         <v>2888</v>
       </c>
-      <c r="M28" s="9" t="s">
+      <c r="M28" t="s">
         <v>92</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N28" t="s">
         <v>93</v>
       </c>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9">
+      <c r="P28">
         <v>2886</v>
       </c>
-      <c r="Q28" s="9" t="s">
+      <c r="Q28" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" s="9" t="s">
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
         <v>89</v>
       </c>
-      <c r="G29" s="9">
-        <v>7</v>
-      </c>
-      <c r="H29" s="9" t="s">
+      <c r="G29">
+        <v>7</v>
+      </c>
+      <c r="H29" t="s">
         <v>90</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" t="s">
         <v>91</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29">
         <v>4</v>
       </c>
-      <c r="K29" s="9">
-        <v>1</v>
-      </c>
-      <c r="L29" s="9">
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
         <v>2888</v>
       </c>
-      <c r="M29" s="9" t="s">
+      <c r="M29" t="s">
         <v>92</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="N29" t="s">
         <v>93</v>
       </c>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9">
+      <c r="P29">
         <v>2886</v>
       </c>
-      <c r="Q29" s="9" t="s">
+      <c r="Q29" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
+      <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
         <v>102</v>
       </c>
-      <c r="G30" s="10">
-        <v>7</v>
-      </c>
-      <c r="H30" s="10" t="s">
+      <c r="G30">
+        <v>7</v>
+      </c>
+      <c r="H30" t="s">
         <v>103</v>
       </c>
-      <c r="I30" s="10" t="s">
+      <c r="I30" t="s">
         <v>104</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30">
         <v>2</v>
       </c>
-      <c r="K30" s="10">
-        <v>1</v>
-      </c>
-      <c r="L30" s="10">
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
         <v>1766</v>
       </c>
-      <c r="M30" s="10" t="s">
+      <c r="M30" t="s">
         <v>105</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="N30" t="s">
         <v>75</v>
       </c>
-      <c r="P30" s="9">
+      <c r="P30">
         <v>1800</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="Q30" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" t="s">
         <v>101</v>
       </c>
-      <c r="E31" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" s="10" t="s">
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
         <v>102</v>
       </c>
-      <c r="G31" s="10">
-        <v>7</v>
-      </c>
-      <c r="H31" s="10" t="s">
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31" t="s">
         <v>103</v>
       </c>
-      <c r="I31" s="10" t="s">
+      <c r="I31" t="s">
         <v>106</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31">
         <v>2</v>
       </c>
-      <c r="K31" s="10">
-        <v>1</v>
-      </c>
-      <c r="L31" s="10">
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
         <v>1766</v>
       </c>
-      <c r="M31" s="10" t="s">
+      <c r="M31" t="s">
         <v>105</v>
       </c>
-      <c r="N31" s="10" t="s">
+      <c r="N31" t="s">
         <v>75</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P31">
         <v>1732</v>
       </c>
-      <c r="Q31" s="9" t="s">
+      <c r="Q31" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+      <c r="A32" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" t="s">
         <v>109</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" s="11" t="s">
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="11">
-        <v>7</v>
-      </c>
-      <c r="H32" s="11" t="s">
+      <c r="G32">
+        <v>7</v>
+      </c>
+      <c r="H32" t="s">
         <v>110</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="I32" t="s">
         <v>104</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32">
         <v>2</v>
       </c>
-      <c r="K32" s="11">
-        <v>1</v>
-      </c>
-      <c r="L32" s="11">
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
         <v>713</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" t="s">
         <v>111</v>
       </c>
-      <c r="N32" s="11" t="s">
+      <c r="N32" t="s">
         <v>112</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P32">
         <v>848</v>
       </c>
-      <c r="Q32" s="11" t="s">
+      <c r="Q32" t="s">
         <v>113</v>
       </c>
     </row>
